--- a/benchmarktests/testdefinitions/Benchmarktest_traject 13-3.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 13-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC4C26-4731-4C96-8CC4-273A7E6A52A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4769F49F-44B4-42D4-AAF5-0A4D45B38058}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="5" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="203">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -2376,8 +2376,8 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,6 +2385,7 @@
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -2392,20 +2393,20 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
+        <f>IFERROR(1-PRODUCT(G7:G14),"GR")</f>
         <v>1.9480000000005049E-4</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,H2))</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>3.3333333333333332E-4</v>
+        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>1.111111111111111E-5</v>
       </c>
       <c r="H2">
         <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2413,20 +2414,20 @@
         <v>83</v>
       </c>
       <c r="D3" s="1">
-        <f>1-PRODUCT(H7:H12)</f>
+        <f>1-PRODUCT(H7:H14)</f>
         <v>1.9480000000005049E-4</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>3.3333333333333332E-4</v>
+        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>1.111111111111111E-5</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2488,11 +2489,11 @@
       </c>
       <c r="E8" s="44"/>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G14" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" ref="G8:G13" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H14" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" ref="H8:H13" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
         <v>1</v>
       </c>
     </row>
@@ -2585,9 +2586,17 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="31">
+        <f>BSKW!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C6</f>
+        <v>0</v>
+      </c>
       <c r="E13" s="44"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -2603,14 +2612,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="27"/>
       <c r="E14" s="46"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10756,7 +10759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
   <dimension ref="B2:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
